--- a/src/main/resources/templates/rental-support-application.xlsx
+++ b/src/main/resources/templates/rental-support-application.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/1000bang/vacation/api/src/main/resources/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ACC4DF8-E509-2B44-BD3D-8D3E2263AB15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62034BA-12C1-2C4A-B177-1301A0F85096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>신청 일자</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -241,6 +241,38 @@
       </rPr>
       <t>{{MONTH}}</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{DAM_SIG1}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{DAM_SIG2}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{TIM_SIG1}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{TIM_SIG2}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{BU_SIG1}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{BU_SIG2}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{DEA_SIG1}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{DEA_SIG2}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1234,7 +1266,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="A6" sqref="A6:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -1293,10 +1325,18 @@
       <c r="C3" s="55"/>
       <c r="D3" s="56"/>
       <c r="E3" s="63"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="30"/>
+      <c r="F3" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="30" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="4" spans="1:12" ht="28" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -1323,10 +1363,18 @@
       <c r="C5" s="60"/>
       <c r="D5" s="61"/>
       <c r="E5" s="64"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="7"/>
+      <c r="F5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="6" spans="1:12" ht="28" customHeight="1" thickTop="1">
       <c r="A6" s="65" t="s">

--- a/src/main/resources/templates/rental-support-application.xlsx
+++ b/src/main/resources/templates/rental-support-application.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/1000bang/vacation/api/src/main/resources/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62034BA-12C1-2C4A-B177-1301A0F85096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD936B8-ED86-4E48-9B45-264F12150C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -178,10 +178,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(총 계약 기간 : {{CONTRACT_YEARS}} 년)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{{PAYMENT_TYPE}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -273,6 +269,10 @@
   </si>
   <si>
     <t>{{DEA_SIG2}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(총 계약 기간 : {{CONTRACT_YEARS}} )</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -755,6 +755,155 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -782,12 +931,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -799,149 +942,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="31" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1266,7 +1266,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:I8"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -1278,28 +1278,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="80" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A1" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="53"/>
+      <c r="A1" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="23"/>
     </row>
     <row r="2" spans="1:12" ht="28" customHeight="1" thickTop="1">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="62" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="36" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -1319,329 +1319,345 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" s="30" t="s">
-        <v>45</v>
+      <c r="C3" s="27"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="49" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="28" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="30"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="49"/>
     </row>
     <row r="5" spans="1:12" ht="28" customHeight="1" thickBot="1">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="60" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="64"/>
+      <c r="B5" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="34"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="38"/>
       <c r="F5" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I5" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="28" customHeight="1" thickTop="1">
+      <c r="A6" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="43"/>
+    </row>
+    <row r="7" spans="1:12" ht="28" customHeight="1">
+      <c r="A7" s="44"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="46"/>
+    </row>
+    <row r="8" spans="1:12" ht="28" customHeight="1" thickBot="1">
+      <c r="A8" s="44"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="46"/>
+    </row>
+    <row r="9" spans="1:12" ht="28" customHeight="1" thickTop="1">
+      <c r="A9" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="40"/>
+      <c r="C9" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="24" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="28" customHeight="1" thickTop="1">
-      <c r="A6" s="65" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="67"/>
-    </row>
-    <row r="7" spans="1:12" ht="28" customHeight="1">
-      <c r="A7" s="68"/>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="70"/>
-    </row>
-    <row r="8" spans="1:12" ht="28" customHeight="1" thickBot="1">
-      <c r="A8" s="68"/>
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="70"/>
-    </row>
-    <row r="9" spans="1:12" ht="28" customHeight="1" thickTop="1">
-      <c r="A9" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="44"/>
+      <c r="I9" s="25"/>
     </row>
     <row r="10" spans="1:12" ht="28" customHeight="1">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
       <c r="H10" s="10" t="s">
         <v>16</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="28" customHeight="1" thickBot="1">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="57" t="s">
+      <c r="B11" s="30"/>
+      <c r="C11" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="30"/>
+    </row>
+    <row r="12" spans="1:12" ht="28" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A12" s="54"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="56"/>
+    </row>
+    <row r="13" spans="1:12" ht="28" customHeight="1" thickTop="1">
+      <c r="A13" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="40"/>
+      <c r="C13" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="24"/>
-    </row>
-    <row r="12" spans="1:12" ht="28" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A12" s="33"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="35"/>
-    </row>
-    <row r="13" spans="1:12" ht="28" customHeight="1" thickTop="1">
-      <c r="A13" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="39"/>
+      <c r="D13" s="48"/>
       <c r="E13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="38" t="s">
+      <c r="F13" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="48"/>
+      <c r="H13" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="39"/>
-      <c r="H13" s="13" t="s">
+      <c r="I13" s="12" t="s">
         <v>32</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>33</v>
       </c>
       <c r="K13" s="9"/>
       <c r="L13" s="8"/>
     </row>
     <row r="14" spans="1:12" ht="28" customHeight="1">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="46"/>
-      <c r="C14" s="47" t="s">
+      <c r="B14" s="15"/>
+      <c r="C14" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="17"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="18"/>
+      <c r="H14" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="48"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="41"/>
-      <c r="H14" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="I14" s="50"/>
+      <c r="I14" s="20"/>
       <c r="K14" s="9"/>
       <c r="L14" s="8"/>
     </row>
     <row r="15" spans="1:12" ht="28" customHeight="1" thickBot="1">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="27" t="s">
+      <c r="B15" s="30"/>
+      <c r="C15" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="28"/>
+      <c r="I15" s="70"/>
     </row>
     <row r="16" spans="1:12" ht="28" customHeight="1" thickTop="1">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="18"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="62"/>
     </row>
     <row r="17" spans="1:9" ht="28" customHeight="1">
-      <c r="A17" s="15"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="20"/>
+      <c r="A17" s="59"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="64"/>
     </row>
     <row r="18" spans="1:9" ht="28" customHeight="1">
-      <c r="A18" s="15"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="20"/>
+      <c r="A18" s="59"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="64"/>
     </row>
     <row r="19" spans="1:9" ht="28" customHeight="1">
-      <c r="A19" s="15"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="20"/>
+      <c r="A19" s="59"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="64"/>
     </row>
     <row r="20" spans="1:9" ht="28" customHeight="1">
-      <c r="A20" s="15"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="20"/>
+      <c r="A20" s="59"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="64"/>
     </row>
     <row r="21" spans="1:9" ht="28" customHeight="1">
-      <c r="A21" s="15"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="20"/>
+      <c r="A21" s="59"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="64"/>
     </row>
     <row r="22" spans="1:9" ht="28" customHeight="1">
-      <c r="A22" s="15"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="20"/>
+      <c r="A22" s="59"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="64"/>
     </row>
     <row r="23" spans="1:9" ht="28" customHeight="1">
-      <c r="A23" s="15"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="20"/>
+      <c r="A23" s="59"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="64"/>
     </row>
     <row r="24" spans="1:9" ht="28" customHeight="1" thickBot="1">
-      <c r="A24" s="16"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="22"/>
+      <c r="A24" s="60"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="66"/>
     </row>
     <row r="25" spans="1:9" ht="18" thickTop="1"/>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A16:A24"/>
+    <mergeCell ref="B16:I24"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="H9:I9"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="F14:G14"/>
@@ -1658,22 +1674,6 @@
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A6:I8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="A16:A24"/>
-    <mergeCell ref="B16:I24"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:I15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
